--- a/Orden ppto.xlsx
+++ b/Orden ppto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farmiral53\Desktop\Farmiral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82600AC2-AB93-4A75-889A-ED21EEFAD423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50206BE1-05B3-4D94-9935-5E6D2CEFEF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28788" yWindow="-16416" windowWidth="29016" windowHeight="15696" xr2:uid="{97F4B8CD-F38B-46EF-AA64-7BFDAB0ACD78}"/>
+    <workbookView xWindow="12" yWindow="-16308" windowWidth="29016" windowHeight="15696" xr2:uid="{97F4B8CD-F38B-46EF-AA64-7BFDAB0ACD78}"/>
   </bookViews>
   <sheets>
     <sheet name="PPTO" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Orden</t>
   </si>
@@ -232,6 +232,72 @@
   </si>
   <si>
     <t>PPTO</t>
+  </si>
+  <si>
+    <t>GASOLINA VENTAS</t>
+  </si>
+  <si>
+    <t>MTTO EDIFICIOS</t>
+  </si>
+  <si>
+    <t>OTROS GASTOS ADMINISTRACION</t>
+  </si>
+  <si>
+    <t>SERVICIOS ADMINISTRATIVOS REC</t>
+  </si>
+  <si>
+    <t>SUSCRIPCIONES</t>
+  </si>
+  <si>
+    <t>PUBLICIDAD RECLASIFICAR</t>
+  </si>
+  <si>
+    <t>SEGUROS VTAS RECLASIFICAR</t>
+  </si>
+  <si>
+    <t>COMISIONES VTAS RECLASIFICAR</t>
+  </si>
+  <si>
+    <t>UNIFORMES VTAS RECLASIFICAR</t>
+  </si>
+  <si>
+    <t>HONORARIOS ADMIN</t>
+  </si>
+  <si>
+    <t>CONSUMIBLES OFICINAS NO USAR</t>
+  </si>
+  <si>
+    <t>PROGRAMAS ADMIN</t>
+  </si>
+  <si>
+    <t>VIATICOS CALIDAD RECLASIFICAR</t>
+  </si>
+  <si>
+    <t>DEPRECIACION MAQUINARIA</t>
+  </si>
+  <si>
+    <t>DEPRECIACION MOBILIARIO</t>
+  </si>
+  <si>
+    <t>DEPRECIACION EQUIPO COMPUTO</t>
+  </si>
+  <si>
+    <t>DEPRECIACION ADAPTACIONES</t>
+  </si>
+  <si>
+    <t>DEPRECIACION OTROS</t>
+  </si>
+  <si>
+    <t>ARRENDAMIENTOS REC</t>
+  </si>
+  <si>
+    <t>FLETES REC</t>
+  </si>
+  <si>
+    <t>DEPRECIACION AUTOMOVILES</t>
+  </si>
+  <si>
+    <t>ARRENDAMIENTO JESUS</t>
   </si>
 </sst>
 </file>
@@ -583,10 +649,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1E33A7-2893-4479-A8DE-B686EFCE0284}">
-  <dimension ref="A1:B65"/>
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,279 +719,279 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B20">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B22">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B26">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B27">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B28">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B29">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B30">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B31">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B32">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B33">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B34">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B35">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B36">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B37">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B38">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B39">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B40">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B41">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B42">
         <v>38</v>
@@ -932,31 +999,31 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B43">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B44">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B45">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B46">
         <v>42</v>
@@ -964,130 +1031,130 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B47">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B50">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B51">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B52">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B53">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B54">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="B55">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B56">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="B57">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B58">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B59">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B60">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B61">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -1095,23 +1162,199 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B64">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B65">
-        <v>42</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Orden ppto.xlsx
+++ b/Orden ppto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farmiral53\Desktop\Farmiral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50206BE1-05B3-4D94-9935-5E6D2CEFEF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF8A06F-BC5E-4931-8AB3-C1378D86F4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="-16308" windowWidth="29016" windowHeight="15696" xr2:uid="{97F4B8CD-F38B-46EF-AA64-7BFDAB0ACD78}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{97F4B8CD-F38B-46EF-AA64-7BFDAB0ACD78}"/>
   </bookViews>
   <sheets>
     <sheet name="PPTO" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Orden</t>
   </si>
@@ -298,6 +298,45 @@
   </si>
   <si>
     <t>ARRENDAMIENTO JESUS</t>
+  </si>
+  <si>
+    <t>Gross Revenue</t>
+  </si>
+  <si>
+    <t>Net Revenue</t>
+  </si>
+  <si>
+    <t>Margen Material Directo</t>
+  </si>
+  <si>
+    <t>Total COGS</t>
+  </si>
+  <si>
+    <t>Utilidad de producción</t>
+  </si>
+  <si>
+    <t>Utilidad Bruta</t>
+  </si>
+  <si>
+    <t>Utilidad Operativa</t>
+  </si>
+  <si>
+    <t>Total OP Expenses</t>
+  </si>
+  <si>
+    <t>Total Expenses</t>
+  </si>
+  <si>
+    <t>Utilidad Neta</t>
+  </si>
+  <si>
+    <t>COMISIONES NO USAR</t>
+  </si>
+  <si>
+    <t>HONORARIOS CALIDAD NO USAR</t>
+  </si>
+  <si>
+    <t>HONORARIOS DESARROLLO NO USAR</t>
   </si>
 </sst>
 </file>
@@ -650,10 +689,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1E33A7-2893-4479-A8DE-B686EFCE0284}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1218,7 +1257,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -1355,6 +1394,110 @@
       </c>
       <c r="B87">
         <v>37</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>92</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
